--- a/Fase 2/Evidencias Proyecto/Sprints/Release/Documento Release – Proyecto APT.xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Release/Documento Release – Proyecto APT.xlsx
@@ -599,7 +599,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -619,7 +619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -639,7 +639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -679,7 +679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -719,7 +719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
@@ -759,7 +759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
